--- a/Data/Rice/IRCH0301_AT.xlsx
+++ b/Data/Rice/IRCH0301_AT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20940" windowHeight="9285" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20940" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="A&amp;T data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
   <si>
     <t>IDAT</t>
   </si>
@@ -181,6 +181,24 @@
   </si>
   <si>
     <t>exp</t>
+  </si>
+  <si>
+    <t>IDOYPI = 209     ! Day of panicle initiation (estimated as same day as jointing)</t>
+  </si>
+  <si>
+    <t>IDOYFL = 238      ! Day of flowering</t>
+  </si>
+  <si>
+    <t>IDOYM = 278      ! Day of maturity (estimated as 7 d before harvest)</t>
+  </si>
+  <si>
+    <t>*-- Parameter to set forcing of observed LAI during simulation</t>
+  </si>
+  <si>
+    <t>LAI_FRC = 0       ! No forcing</t>
+  </si>
+  <si>
+    <t>*LAI_FRC = 2      ! Forcing</t>
   </si>
 </sst>
 </file>
@@ -575,8 +593,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC109"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,25 +691,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <v>3200</v>
+        <v>3209</v>
       </c>
       <c r="D5" s="5">
-        <v>3231</v>
+        <v>3238</v>
       </c>
       <c r="E5" s="6">
-        <v>3275</v>
+        <v>3278</v>
       </c>
       <c r="F5">
-        <v>6493</v>
+        <v>5759</v>
       </c>
       <c r="G5">
-        <v>6752</v>
+        <v>5372</v>
       </c>
       <c r="H5">
-        <v>13932</v>
+        <v>13713</v>
       </c>
       <c r="I5" s="7">
-        <v>6.58</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
@@ -1327,22 +1345,22 @@
         <v>3183</v>
       </c>
       <c r="D28">
-        <v>2.08</v>
+        <v>1.72</v>
       </c>
       <c r="E28">
-        <v>655</v>
+        <v>623.69000000000005</v>
       </c>
       <c r="F28">
-        <v>45.49</v>
+        <v>76.760000000000005</v>
       </c>
       <c r="G28">
-        <v>700.49</v>
+        <v>710.05</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1400.97</v>
+        <v>1410.5</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
@@ -1353,22 +1371,22 @@
         <v>3209</v>
       </c>
       <c r="D29">
-        <v>5.59</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="E29">
-        <v>2643.24</v>
+        <v>2124.0500000000002</v>
       </c>
       <c r="F29">
-        <v>226.94</v>
+        <v>154.47999999999999</v>
       </c>
       <c r="G29">
-        <v>2483.04</v>
+        <v>1776.48</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>5353.22</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
@@ -1379,22 +1397,22 @@
         <v>3223</v>
       </c>
       <c r="D30">
-        <v>6.58</v>
+        <v>7.05</v>
       </c>
       <c r="E30">
-        <v>2673.8</v>
+        <v>2389.14</v>
       </c>
       <c r="F30">
-        <v>472.94</v>
+        <v>134.52000000000001</v>
       </c>
       <c r="G30">
-        <v>3023.85</v>
+        <v>3196.29</v>
       </c>
       <c r="H30">
-        <v>1554.39</v>
+        <v>880.73</v>
       </c>
       <c r="I30">
-        <v>7724.99</v>
+        <v>6600.68</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
@@ -1405,22 +1423,22 @@
         <v>3233</v>
       </c>
       <c r="D31">
-        <v>6.2</v>
+        <v>4.21</v>
       </c>
       <c r="E31">
-        <v>3098.33</v>
+        <v>2381.0700000000002</v>
       </c>
       <c r="F31">
-        <v>669.6</v>
+        <v>363.21</v>
       </c>
       <c r="G31">
-        <v>4698.57</v>
+        <v>3020.06</v>
       </c>
       <c r="H31">
-        <v>2724.63</v>
+        <v>2587.16</v>
       </c>
       <c r="I31">
-        <v>11191.14</v>
+        <v>8351.51</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
@@ -1431,30 +1449,30 @@
         <v>3262</v>
       </c>
       <c r="D32">
-        <v>3.06</v>
+        <v>2.15</v>
       </c>
       <c r="E32">
-        <v>2281.19</v>
+        <v>1600.83</v>
       </c>
       <c r="F32">
-        <v>1055.48</v>
+        <v>910.28</v>
       </c>
       <c r="G32">
-        <v>5413.57</v>
+        <v>3931.46</v>
       </c>
       <c r="H32">
-        <v>6148.7</v>
+        <v>5284.4</v>
       </c>
       <c r="I32">
-        <v>12898.94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+        <v>11726.97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>3275</v>
+        <v>3278</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1463,22 +1481,22 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>3077.48</v>
+        <v>2582.34</v>
       </c>
       <c r="G33">
-        <v>6493.48</v>
+        <v>5758.62</v>
       </c>
       <c r="H33">
-        <v>6752.09</v>
+        <v>5372.3</v>
       </c>
       <c r="I33">
-        <v>13932.19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+        <v>13713.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D34" s="7"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>42</v>
       </c>
@@ -1496,7 +1514,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>13</v>
       </c>
@@ -1514,7 +1532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>19</v>
       </c>
@@ -1526,7 +1544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>20</v>
       </c>
@@ -1538,7 +1556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
@@ -1568,11 +1586,11 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="10" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="10" t="s">
         <v>22</v>
@@ -1605,7 +1623,7 @@
       </c>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>1</v>
       </c>
@@ -1636,11 +1654,11 @@
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
       <c r="X42" s="10" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="Y42" s="5"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="10" t="s">
         <v>24</v>
@@ -1673,7 +1691,7 @@
       </c>
       <c r="Y43" s="5"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>2</v>
       </c>
@@ -1704,11 +1722,11 @@
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
       <c r="X44" s="10" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="Y44" s="6"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="10" t="s">
         <v>26</v>
@@ -1741,12 +1759,12 @@
       </c>
       <c r="Y45" s="6"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
       <c r="M46" s="10"/>
       <c r="X46" s="10"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -1760,7 +1778,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48" s="10" t="s">
         <v>39</v>
@@ -1809,10 +1827,6 @@
         <f>3*1000+Y48</f>
         <v>3140</v>
       </c>
-      <c r="AC48" s="1">
-        <f>Z48</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B49" s="10">
@@ -1856,15 +1870,11 @@
         <v>183</v>
       </c>
       <c r="Z49">
-        <v>2.08</v>
+        <v>1.72</v>
       </c>
       <c r="AB49">
-        <f>3*1000+Y49</f>
+        <f t="shared" ref="AB49:AB54" si="1">3*1000+Y49</f>
         <v>3183</v>
-      </c>
-      <c r="AC49">
-        <f>Z49</f>
-        <v>2.08</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
@@ -1878,11 +1888,11 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50:F54" si="1">3*1000+C50</f>
+        <f t="shared" ref="F50:F54" si="2">3*1000+C50</f>
         <v>3209</v>
       </c>
       <c r="G50">
-        <f t="shared" ref="G50:G54" si="2">D50</f>
+        <f t="shared" ref="G50:G54" si="3">D50</f>
         <v>5.0199999999999996</v>
       </c>
       <c r="M50" s="10">
@@ -1895,11 +1905,11 @@
         <v>5.59</v>
       </c>
       <c r="Q50">
-        <f t="shared" ref="Q50:Q54" si="3">3*1000+N50</f>
+        <f t="shared" ref="Q50:Q54" si="4">3*1000+N50</f>
         <v>3209</v>
       </c>
       <c r="R50">
-        <f t="shared" ref="R50:R54" si="4">O50</f>
+        <f t="shared" ref="R50:R54" si="5">O50</f>
         <v>5.59</v>
       </c>
       <c r="X50" s="10">
@@ -1909,15 +1919,11 @@
         <v>209</v>
       </c>
       <c r="Z50">
-        <v>5.59</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AB50">
-        <f t="shared" ref="AB50:AB54" si="5">3*1000+Y50</f>
+        <f t="shared" si="1"/>
         <v>3209</v>
-      </c>
-      <c r="AC50">
-        <f t="shared" ref="AC50:AC54" si="6">Z50</f>
-        <v>5.59</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
@@ -1931,47 +1937,43 @@
         <v>6.25</v>
       </c>
       <c r="F51">
+        <f t="shared" si="2"/>
+        <v>3223</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
+      <c r="M51" s="10">
+        <v>2003</v>
+      </c>
+      <c r="N51">
+        <v>223</v>
+      </c>
+      <c r="O51">
+        <v>6.58</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="4"/>
+        <v>3223</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="5"/>
+        <v>6.58</v>
+      </c>
+      <c r="X51" s="10">
+        <v>2003</v>
+      </c>
+      <c r="Y51">
+        <v>223</v>
+      </c>
+      <c r="Z51">
+        <v>7.05</v>
+      </c>
+      <c r="AB51">
         <f t="shared" si="1"/>
         <v>3223</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="2"/>
-        <v>6.25</v>
-      </c>
-      <c r="M51" s="10">
-        <v>2003</v>
-      </c>
-      <c r="N51">
-        <v>223</v>
-      </c>
-      <c r="O51">
-        <v>6.58</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="3"/>
-        <v>3223</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="4"/>
-        <v>6.58</v>
-      </c>
-      <c r="X51" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y51">
-        <v>223</v>
-      </c>
-      <c r="Z51">
-        <v>6.58</v>
-      </c>
-      <c r="AB51">
-        <f t="shared" si="5"/>
-        <v>3223</v>
-      </c>
-      <c r="AC51">
-        <f t="shared" si="6"/>
-        <v>6.58</v>
-      </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B52" s="10">
@@ -1984,47 +1986,43 @@
         <v>6.37</v>
       </c>
       <c r="F52">
+        <f t="shared" si="2"/>
+        <v>3233</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>6.37</v>
+      </c>
+      <c r="M52" s="10">
+        <v>2003</v>
+      </c>
+      <c r="N52">
+        <v>233</v>
+      </c>
+      <c r="O52">
+        <v>6.2</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="4"/>
+        <v>3233</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="5"/>
+        <v>6.2</v>
+      </c>
+      <c r="X52" s="10">
+        <v>2003</v>
+      </c>
+      <c r="Y52">
+        <v>233</v>
+      </c>
+      <c r="Z52">
+        <v>4.21</v>
+      </c>
+      <c r="AB52">
         <f t="shared" si="1"/>
         <v>3233</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="2"/>
-        <v>6.37</v>
-      </c>
-      <c r="M52" s="10">
-        <v>2003</v>
-      </c>
-      <c r="N52">
-        <v>233</v>
-      </c>
-      <c r="O52">
-        <v>6.2</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="3"/>
-        <v>3233</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="4"/>
-        <v>6.2</v>
-      </c>
-      <c r="X52" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y52">
-        <v>233</v>
-      </c>
-      <c r="Z52">
-        <v>6.2</v>
-      </c>
-      <c r="AB52">
-        <f t="shared" si="5"/>
-        <v>3233</v>
-      </c>
-      <c r="AC52">
-        <f t="shared" si="6"/>
-        <v>6.2</v>
-      </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B53" s="10">
@@ -2037,47 +2035,43 @@
         <v>3.3</v>
       </c>
       <c r="F53">
+        <f t="shared" si="2"/>
+        <v>3262</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>3.3</v>
+      </c>
+      <c r="M53" s="10">
+        <v>2003</v>
+      </c>
+      <c r="N53">
+        <v>262</v>
+      </c>
+      <c r="O53">
+        <v>3.06</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="4"/>
+        <v>3262</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="5"/>
+        <v>3.06</v>
+      </c>
+      <c r="X53" s="10">
+        <v>2003</v>
+      </c>
+      <c r="Y53">
+        <v>262</v>
+      </c>
+      <c r="Z53">
+        <v>2.15</v>
+      </c>
+      <c r="AB53">
         <f t="shared" si="1"/>
         <v>3262</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="2"/>
-        <v>3.3</v>
-      </c>
-      <c r="M53" s="10">
-        <v>2003</v>
-      </c>
-      <c r="N53">
-        <v>262</v>
-      </c>
-      <c r="O53">
-        <v>3.06</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="3"/>
-        <v>3262</v>
-      </c>
-      <c r="R53">
-        <f t="shared" si="4"/>
-        <v>3.06</v>
-      </c>
-      <c r="X53" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y53">
-        <v>262</v>
-      </c>
-      <c r="Z53">
-        <v>3.06</v>
-      </c>
-      <c r="AB53">
-        <f t="shared" si="5"/>
-        <v>3262</v>
-      </c>
-      <c r="AC53">
-        <f t="shared" si="6"/>
-        <v>3.06</v>
-      </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B54" s="10">
@@ -2090,11 +2084,11 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3277</v>
       </c>
       <c r="G54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M54" s="10">
@@ -2107,29 +2101,25 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3275</v>
       </c>
       <c r="R54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X54" s="10">
         <v>2003</v>
       </c>
       <c r="Y54">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Z54">
         <v>0</v>
       </c>
       <c r="AB54">
-        <f t="shared" si="5"/>
-        <v>3275</v>
-      </c>
-      <c r="AC54">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3278</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
@@ -2150,7 +2140,7 @@
       </c>
       <c r="N56" s="1"/>
       <c r="X56" s="10" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="Y56" s="1"/>
     </row>
@@ -2190,22 +2180,10 @@
         <v>0</v>
       </c>
       <c r="X57" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y57" s="1">
-        <v>140</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <f>3*1000+Y57</f>
-        <v>3140</v>
-      </c>
-      <c r="AC57" s="1">
-        <f>Z57</f>
-        <v>0</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="Y57" s="1"/>
+      <c r="AC57" s="1"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B58" s="10">
@@ -2242,23 +2220,10 @@
         <f>O58</f>
         <v>655</v>
       </c>
-      <c r="X58" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y58" s="1">
-        <v>183</v>
-      </c>
-      <c r="Z58">
-        <v>655</v>
-      </c>
-      <c r="AB58">
-        <f>3*1000+Y58</f>
-        <v>3183</v>
-      </c>
-      <c r="AC58">
-        <f>Z58</f>
-        <v>655</v>
-      </c>
+      <c r="X58" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B59" s="10">
@@ -2271,11 +2236,11 @@
         <v>2502.89</v>
       </c>
       <c r="F59">
-        <f t="shared" ref="F59:F63" si="7">3*1000+C59</f>
+        <f t="shared" ref="F59:F63" si="6">3*1000+C59</f>
         <v>3209</v>
       </c>
       <c r="G59">
-        <f t="shared" ref="G59:G63" si="8">D59</f>
+        <f t="shared" ref="G59:G63" si="7">D59</f>
         <v>2502.89</v>
       </c>
       <c r="M59" s="10">
@@ -2288,30 +2253,15 @@
         <v>2643.24</v>
       </c>
       <c r="Q59">
-        <f t="shared" ref="Q59:Q63" si="9">3*1000+N59</f>
+        <f t="shared" ref="Q59:Q63" si="8">3*1000+N59</f>
         <v>3209</v>
       </c>
       <c r="R59">
-        <f t="shared" ref="R59:R63" si="10">O59</f>
+        <f t="shared" ref="R59:R63" si="9">O59</f>
         <v>2643.24</v>
       </c>
-      <c r="X59" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y59" s="1">
-        <v>209</v>
-      </c>
-      <c r="Z59">
-        <v>2643.24</v>
-      </c>
-      <c r="AB59">
-        <f t="shared" ref="AB59:AB63" si="11">3*1000+Y59</f>
-        <v>3209</v>
-      </c>
-      <c r="AC59">
-        <f t="shared" ref="AC59:AC63" si="12">Z59</f>
-        <v>2643.24</v>
-      </c>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B60" s="10">
@@ -2324,11 +2274,11 @@
         <v>3297.57</v>
       </c>
       <c r="F60">
+        <f t="shared" si="6"/>
+        <v>3223</v>
+      </c>
+      <c r="G60">
         <f t="shared" si="7"/>
-        <v>3223</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="8"/>
         <v>3297.57</v>
       </c>
       <c r="M60" s="10">
@@ -2341,30 +2291,17 @@
         <v>2673.8</v>
       </c>
       <c r="Q60">
+        <f t="shared" si="8"/>
+        <v>3223</v>
+      </c>
+      <c r="R60">
         <f t="shared" si="9"/>
-        <v>3223</v>
-      </c>
-      <c r="R60">
-        <f t="shared" si="10"/>
         <v>2673.8</v>
       </c>
-      <c r="X60" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y60" s="1">
-        <v>223</v>
-      </c>
-      <c r="Z60">
-        <v>2673.8</v>
-      </c>
-      <c r="AB60">
-        <f t="shared" si="11"/>
-        <v>3223</v>
-      </c>
-      <c r="AC60">
-        <f t="shared" si="12"/>
-        <v>2673.8</v>
-      </c>
+      <c r="X60" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B61" s="10">
@@ -2377,11 +2314,11 @@
         <v>3756.28</v>
       </c>
       <c r="F61">
+        <f t="shared" si="6"/>
+        <v>3233</v>
+      </c>
+      <c r="G61">
         <f t="shared" si="7"/>
-        <v>3233</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="8"/>
         <v>3756.28</v>
       </c>
       <c r="M61" s="10">
@@ -2394,29 +2331,21 @@
         <v>3098.33</v>
       </c>
       <c r="Q61">
+        <f t="shared" si="8"/>
+        <v>3233</v>
+      </c>
+      <c r="R61">
         <f t="shared" si="9"/>
-        <v>3233</v>
-      </c>
-      <c r="R61">
-        <f t="shared" si="10"/>
         <v>3098.33</v>
       </c>
-      <c r="X61" s="10">
-        <v>2003</v>
+      <c r="X61" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="Y61" s="1">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="Z61">
-        <v>3098.33</v>
-      </c>
-      <c r="AB61">
-        <f t="shared" si="11"/>
-        <v>3233</v>
-      </c>
-      <c r="AC61">
-        <f t="shared" si="12"/>
-        <v>3098.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
@@ -2430,11 +2359,11 @@
         <v>2213.33</v>
       </c>
       <c r="F62">
+        <f t="shared" si="6"/>
+        <v>3262</v>
+      </c>
+      <c r="G62">
         <f t="shared" si="7"/>
-        <v>3262</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="8"/>
         <v>2213.33</v>
       </c>
       <c r="M62" s="10">
@@ -2447,29 +2376,21 @@
         <v>2281.19</v>
       </c>
       <c r="Q62">
+        <f t="shared" si="8"/>
+        <v>3262</v>
+      </c>
+      <c r="R62">
         <f t="shared" si="9"/>
-        <v>3262</v>
-      </c>
-      <c r="R62">
-        <f t="shared" si="10"/>
         <v>2281.19</v>
       </c>
       <c r="X62" s="10">
         <v>2003</v>
       </c>
       <c r="Y62" s="1">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="Z62">
-        <v>2281.19</v>
-      </c>
-      <c r="AB62">
-        <f t="shared" si="11"/>
-        <v>3262</v>
-      </c>
-      <c r="AC62">
-        <f t="shared" si="12"/>
-        <v>2281.19</v>
+        <v>623.69000000000005</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
@@ -2483,11 +2404,11 @@
         <v>0</v>
       </c>
       <c r="F63">
+        <f t="shared" si="6"/>
+        <v>3277</v>
+      </c>
+      <c r="G63">
         <f t="shared" si="7"/>
-        <v>3277</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M63" s="10">
@@ -2500,29 +2421,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
+        <f t="shared" si="8"/>
+        <v>3275</v>
+      </c>
+      <c r="R63">
         <f t="shared" si="9"/>
-        <v>3275</v>
-      </c>
-      <c r="R63">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X63" s="10">
         <v>2003</v>
       </c>
       <c r="Y63" s="1">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="Z63">
-        <v>0</v>
-      </c>
-      <c r="AB63">
-        <f t="shared" si="11"/>
-        <v>3275</v>
-      </c>
-      <c r="AC63">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2124.0500000000002</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
@@ -2530,16 +2443,30 @@
       <c r="D64" s="1"/>
       <c r="M64" s="10"/>
       <c r="N64" s="1"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="1"/>
+      <c r="X64" s="10">
+        <v>2003</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>223</v>
+      </c>
+      <c r="Z64">
+        <v>2389.14</v>
+      </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B65" s="10"/>
       <c r="C65" s="1"/>
       <c r="M65" s="10"/>
       <c r="N65" s="1"/>
-      <c r="X65" s="10"/>
-      <c r="Y65" s="1"/>
+      <c r="X65" s="10">
+        <v>2003</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>233</v>
+      </c>
+      <c r="Z65">
+        <v>2381.0700000000002</v>
+      </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -2551,8 +2478,14 @@
       <c r="M66" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="X66" s="10" t="s">
-        <v>15</v>
+      <c r="X66" s="10">
+        <v>2003</v>
+      </c>
+      <c r="Y66">
+        <v>262</v>
+      </c>
+      <c r="Z66">
+        <v>1600.83</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
@@ -2574,11 +2507,11 @@
       <c r="O67">
         <v>0</v>
       </c>
-      <c r="X67" s="10" t="s">
-        <v>34</v>
+      <c r="X67" s="10">
+        <v>2003</v>
       </c>
       <c r="Y67">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -2603,15 +2536,7 @@
       <c r="O68">
         <v>45.49</v>
       </c>
-      <c r="X68" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y68">
-        <v>183</v>
-      </c>
-      <c r="Z68">
-        <v>45.49</v>
-      </c>
+      <c r="X68" s="10"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
@@ -2632,15 +2557,7 @@
       <c r="O69">
         <v>226.94</v>
       </c>
-      <c r="X69" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y69">
-        <v>209</v>
-      </c>
-      <c r="Z69">
-        <v>226.94</v>
-      </c>
+      <c r="X69" s="10"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B70" s="10">
@@ -2661,14 +2578,8 @@
       <c r="O70">
         <v>472.94</v>
       </c>
-      <c r="X70" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y70">
-        <v>223</v>
-      </c>
-      <c r="Z70">
-        <v>472.94</v>
+      <c r="X70" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
@@ -2690,14 +2601,14 @@
       <c r="O71">
         <v>669.6</v>
       </c>
-      <c r="X71" s="10">
-        <v>2003</v>
+      <c r="X71" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="Y71">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="Z71">
-        <v>669.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
@@ -2723,10 +2634,10 @@
         <v>2003</v>
       </c>
       <c r="Y72">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="Z72">
-        <v>1055.48</v>
+        <v>76.760000000000005</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
@@ -2752,21 +2663,37 @@
         <v>2003</v>
       </c>
       <c r="Y73">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="Z73">
-        <v>3077.48</v>
+        <v>154.47999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
       <c r="M74" s="10"/>
-      <c r="X74" s="10"/>
+      <c r="X74" s="10">
+        <v>2003</v>
+      </c>
+      <c r="Y74">
+        <v>223</v>
+      </c>
+      <c r="Z74">
+        <v>134.52000000000001</v>
+      </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
       <c r="M75" s="10"/>
-      <c r="X75" s="10"/>
+      <c r="X75" s="10">
+        <v>2003</v>
+      </c>
+      <c r="Y75">
+        <v>233</v>
+      </c>
+      <c r="Z75">
+        <v>363.21</v>
+      </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -2778,8 +2705,14 @@
       <c r="M76" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="X76" s="10" t="s">
-        <v>16</v>
+      <c r="X76" s="10">
+        <v>2003</v>
+      </c>
+      <c r="Y76">
+        <v>262</v>
+      </c>
+      <c r="Z76">
+        <v>910.28</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
@@ -2801,14 +2734,14 @@
       <c r="O77">
         <v>0</v>
       </c>
-      <c r="X77" s="10" t="s">
-        <v>35</v>
+      <c r="X77" s="10">
+        <v>2003</v>
       </c>
       <c r="Y77">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>2582.34</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
@@ -2830,15 +2763,7 @@
       <c r="O78">
         <v>700.49</v>
       </c>
-      <c r="X78" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y78">
-        <v>183</v>
-      </c>
-      <c r="Z78">
-        <v>700.49</v>
-      </c>
+      <c r="X78" s="10"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B79" s="10">
@@ -2859,15 +2784,7 @@
       <c r="O79">
         <v>2483.04</v>
       </c>
-      <c r="X79" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y79">
-        <v>209</v>
-      </c>
-      <c r="Z79">
-        <v>2483.04</v>
-      </c>
+      <c r="X79" s="10"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B80" s="10">
@@ -2888,14 +2805,8 @@
       <c r="O80">
         <v>3023.85</v>
       </c>
-      <c r="X80" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y80">
-        <v>223</v>
-      </c>
-      <c r="Z80">
-        <v>3023.85</v>
+      <c r="X80" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
@@ -2917,14 +2828,14 @@
       <c r="O81">
         <v>4698.57</v>
       </c>
-      <c r="X81" s="10">
-        <v>2003</v>
+      <c r="X81" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="Y81">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="Z81">
-        <v>4698.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
@@ -2950,10 +2861,10 @@
         <v>2003</v>
       </c>
       <c r="Y82">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="Z82">
-        <v>5413.57</v>
+        <v>710.05</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
@@ -2979,21 +2890,37 @@
         <v>2003</v>
       </c>
       <c r="Y83">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="Z83">
-        <v>6493.48</v>
+        <v>1776.48</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B84" s="10"/>
       <c r="M84" s="10"/>
-      <c r="X84" s="10"/>
+      <c r="X84" s="10">
+        <v>2003</v>
+      </c>
+      <c r="Y84">
+        <v>223</v>
+      </c>
+      <c r="Z84">
+        <v>3196.29</v>
+      </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B85" s="10"/>
       <c r="M85" s="10"/>
-      <c r="X85" s="10"/>
+      <c r="X85" s="10">
+        <v>2003</v>
+      </c>
+      <c r="Y85">
+        <v>233</v>
+      </c>
+      <c r="Z85">
+        <v>3020.06</v>
+      </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -3005,8 +2932,14 @@
       <c r="M86" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="X86" s="10" t="s">
-        <v>17</v>
+      <c r="X86" s="10">
+        <v>2003</v>
+      </c>
+      <c r="Y86">
+        <v>262</v>
+      </c>
+      <c r="Z86">
+        <v>3931.46</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
@@ -3028,14 +2961,14 @@
       <c r="O87">
         <v>0</v>
       </c>
-      <c r="X87" s="10" t="s">
-        <v>36</v>
+      <c r="X87" s="10">
+        <v>2003</v>
       </c>
       <c r="Y87">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>5758.62</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
@@ -3057,15 +2990,7 @@
       <c r="O88">
         <v>0</v>
       </c>
-      <c r="X88" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y88">
-        <v>183</v>
-      </c>
-      <c r="Z88">
-        <v>0</v>
-      </c>
+      <c r="X88" s="10"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B89" s="10">
@@ -3086,15 +3011,7 @@
       <c r="O89">
         <v>0</v>
       </c>
-      <c r="X89" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y89">
-        <v>209</v>
-      </c>
-      <c r="Z89">
-        <v>0</v>
-      </c>
+      <c r="X89" s="10"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B90" s="10">
@@ -3115,14 +3032,8 @@
       <c r="O90">
         <v>1554.39</v>
       </c>
-      <c r="X90" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y90">
-        <v>223</v>
-      </c>
-      <c r="Z90">
-        <v>1554.39</v>
+      <c r="X90" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
@@ -3144,14 +3055,14 @@
       <c r="O91">
         <v>2724.63</v>
       </c>
-      <c r="X91" s="10">
-        <v>2003</v>
+      <c r="X91" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="Y91">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="Z91">
-        <v>2724.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
@@ -3177,10 +3088,10 @@
         <v>2003</v>
       </c>
       <c r="Y92">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="Z92">
-        <v>6148.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
@@ -3206,15 +3117,23 @@
         <v>2003</v>
       </c>
       <c r="Y93">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="Z93">
-        <v>6752.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M94" s="10"/>
-      <c r="X94" s="10"/>
+      <c r="X94" s="10">
+        <v>2003</v>
+      </c>
+      <c r="Y94">
+        <v>223</v>
+      </c>
+      <c r="Z94">
+        <v>880.73</v>
+      </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -3226,8 +3145,14 @@
       <c r="M95" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="X95" s="10" t="s">
-        <v>28</v>
+      <c r="X95" s="10">
+        <v>2003</v>
+      </c>
+      <c r="Y95">
+        <v>233</v>
+      </c>
+      <c r="Z95">
+        <v>2587.16</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
@@ -3249,14 +3174,14 @@
       <c r="O96">
         <v>0</v>
       </c>
-      <c r="X96" s="10" t="s">
-        <v>37</v>
+      <c r="X96" s="10">
+        <v>2003</v>
       </c>
       <c r="Y96">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="Z96">
-        <v>0</v>
+        <v>5284.4</v>
       </c>
     </row>
     <row r="97" spans="2:26" x14ac:dyDescent="0.25">
@@ -3282,10 +3207,10 @@
         <v>2003</v>
       </c>
       <c r="Y97">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="Z97">
-        <v>1400.97</v>
+        <v>5372.3</v>
       </c>
     </row>
     <row r="98" spans="2:26" x14ac:dyDescent="0.25">
@@ -3307,15 +3232,7 @@
       <c r="O98">
         <v>5353.22</v>
       </c>
-      <c r="X98" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y98">
-        <v>209</v>
-      </c>
-      <c r="Z98">
-        <v>5353.22</v>
-      </c>
+      <c r="X98" s="10"/>
     </row>
     <row r="99" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B99" s="10">
@@ -3336,14 +3253,8 @@
       <c r="O99">
         <v>7724.99</v>
       </c>
-      <c r="X99" s="10">
-        <v>2003</v>
-      </c>
-      <c r="Y99">
-        <v>223</v>
-      </c>
-      <c r="Z99">
-        <v>7724.99</v>
+      <c r="X99" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="2:26" x14ac:dyDescent="0.25">
@@ -3365,14 +3276,14 @@
       <c r="O100">
         <v>11191.14</v>
       </c>
-      <c r="X100" s="10">
-        <v>2003</v>
+      <c r="X100" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="Y100">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="Z100">
-        <v>11191.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:26" x14ac:dyDescent="0.25">
@@ -3398,10 +3309,10 @@
         <v>2003</v>
       </c>
       <c r="Y101">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="Z101">
-        <v>12898.94</v>
+        <v>1410.5</v>
       </c>
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.25">
@@ -3427,19 +3338,35 @@
         <v>2003</v>
       </c>
       <c r="Y102">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="Z102">
-        <v>13932.19</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.25">
       <c r="M103" s="10"/>
-      <c r="X103" s="10"/>
+      <c r="X103" s="10">
+        <v>2003</v>
+      </c>
+      <c r="Y103">
+        <v>223</v>
+      </c>
+      <c r="Z103">
+        <v>6600.68</v>
+      </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B104" s="10"/>
-      <c r="X104" s="10"/>
+      <c r="X104" s="10">
+        <v>2003</v>
+      </c>
+      <c r="Y104">
+        <v>233</v>
+      </c>
+      <c r="Z104">
+        <v>8351.51</v>
+      </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
@@ -3447,6 +3374,26 @@
       </c>
       <c r="C105">
         <v>10948.04</v>
+      </c>
+      <c r="X105">
+        <v>2003</v>
+      </c>
+      <c r="Y105">
+        <v>262</v>
+      </c>
+      <c r="Z105">
+        <v>11726.97</v>
+      </c>
+    </row>
+    <row r="106" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="X106">
+        <v>2003</v>
+      </c>
+      <c r="Y106">
+        <v>277</v>
+      </c>
+      <c r="Z106">
+        <v>13713.26</v>
       </c>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.25">
@@ -3463,7 +3410,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
